--- a/src/main/Data/Opco_Name.xlsx
+++ b/src/main/Data/Opco_Name.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkam\IdeaProjects\SPF_And_DMARC_Record\src\main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052A31FD-36CA-429E-AC58-D6E569B6A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8F859-5282-42A8-B56C-741CBDC9260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="5070" windowWidth="21600" windowHeight="11385" xr2:uid="{0B3D7E29-74B4-4C9C-81D5-1909CE76DB76}"/>
+    <workbookView xWindow="2205" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{0B3D7E29-74B4-4C9C-81D5-1909CE76DB76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>OpCo</t>
   </si>
@@ -53,50 +53,66 @@
     <t>Transition</t>
   </si>
   <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>randstad.hu</t>
+    <t>SPF Record</t>
+  </si>
+  <si>
+    <t>DMARC Record</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>infos.expectra.fr</t>
   </si>
   <si>
     <t>Operational</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>randstad.ro</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>randstad.pl</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>randstad.com.tr</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>randstad.com.ar</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>randstad.cl</t>
+    <t>DERD</t>
+  </si>
+  <si>
+    <t>randstad-stiftung.de</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>digitalmkt.randstadtech.pt</t>
+  </si>
+  <si>
+    <t>cc.randstad.pt</t>
+  </si>
+  <si>
+    <t>v=spf1 include:spf1.randstad.ch include:spf2.randstad.ch include:_spf.google.com include:spf.smtp2go.com ip4:62.2.117.170 ip4:77.59.194.201 ip4:185.134.240.6 ip4:185.134.242.26 ~all</t>
+  </si>
+  <si>
+    <t>v=DMARC1;p=reject;pct=50;rua=mailto:dmarc.reports@randstad.ch;ruf=mailto:dmarc.reports@randstad.ch</t>
+  </si>
+  <si>
+    <t>v=spf1 include:cust-spf.exacttarget.com -all</t>
+  </si>
+  <si>
+    <t>No DMARC Record</t>
+  </si>
+  <si>
+    <t>v=spf1 include:_spf.google.com include:_spf.retarus.com ~all</t>
+  </si>
+  <si>
+    <t>v=spf1 include:_spf.google.com include:o1.mailer.samanage.com ~all</t>
+  </si>
+  <si>
+    <t>v=spf1 include:_spf.ptasp.com mx a:mx.smartcloudpt.pt ~all</t>
+  </si>
+  <si>
+    <t>v=DMARC1; p=quarantine; pct=100; rua=mailto:dmarc.reports@randstad.pt ;ruf=mailto:dmarc.rufreports@randstad.pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +125,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,11 +172,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -160,9 +196,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,17 +517,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5998DA0-7884-423F-8D96-547290177D14}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,86 +539,111 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://infos.expectra.fr/" xr:uid="{9D4B01F9-9D30-4985-B233-E6DE97B5DCF0}"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://randstad-stiftung.de/" xr:uid="{5164CE9A-7540-4798-8BB7-C0239F16131C}"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://digitalmkt.randstadtech.pt/" xr:uid="{D877C3CE-D2FF-42D7-A6C5-8D5C549FC4FE}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://cc.randstad.pt/" xr:uid="{DEA7515C-43A9-45BF-B768-821AD8E39BEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/main/Data/Opco_Name.xlsx
+++ b/src/main/Data/Opco_Name.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>OpCo</t>
   </si>

--- a/src/main/Data/Opco_Name.xlsx
+++ b/src/main/Data/Opco_Name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkam\IdeaProjects\SPF_And_DMARC_Record\src\main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C8F859-5282-42A8-B56C-741CBDC9260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF725C42-F7FF-4239-A7FA-2D7F4E04385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{0B3D7E29-74B4-4C9C-81D5-1909CE76DB76}"/>
+    <workbookView xWindow="2910" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{0B3D7E29-74B4-4C9C-81D5-1909CE76DB76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>OpCo</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/Data/Opco_Name.xlsx
+++ b/src/main/Data/Opco_Name.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>OpCo</t>
   </si>

--- a/src/main/Data/Opco_Name.xlsx
+++ b/src/main/Data/Opco_Name.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkam\IdeaProjects\SPF_And_DMARC_Record\src\main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF725C42-F7FF-4239-A7FA-2D7F4E04385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E91EA-03BB-4DCE-98E6-3EAE36241129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{0B3D7E29-74B4-4C9C-81D5-1909CE76DB76}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>OpCo</t>
   </si>
@@ -81,37 +81,12 @@
   </si>
   <si>
     <t>cc.randstad.pt</t>
-  </si>
-  <si>
-    <t>v=spf1 include:spf1.randstad.ch include:spf2.randstad.ch include:_spf.google.com include:spf.smtp2go.com ip4:62.2.117.170 ip4:77.59.194.201 ip4:185.134.240.6 ip4:185.134.242.26 ~all</t>
-  </si>
-  <si>
-    <t>v=DMARC1;p=reject;pct=50;rua=mailto:dmarc.reports@randstad.ch;ruf=mailto:dmarc.reports@randstad.ch</t>
-  </si>
-  <si>
-    <t>v=spf1 include:cust-spf.exacttarget.com -all</t>
-  </si>
-  <si>
-    <t>No DMARC Record</t>
-  </si>
-  <si>
-    <t>v=spf1 include:_spf.google.com include:_spf.retarus.com ~all</t>
-  </si>
-  <si>
-    <t>v=spf1 include:_spf.google.com include:o1.mailer.samanage.com ~all</t>
-  </si>
-  <si>
-    <t>v=spf1 include:_spf.ptasp.com mx a:mx.smartcloudpt.pt ~all</t>
-  </si>
-  <si>
-    <t>v=DMARC1; p=quarantine; pct=100; rua=mailto:dmarc.reports@randstad.pt ;ruf=mailto:dmarc.rufreports@randstad.pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,13 +495,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -556,12 +531,6 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -573,12 +542,6 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -590,12 +553,6 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -607,12 +564,6 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -623,12 +574,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
